--- a/TemplateList.xlsx
+++ b/TemplateList.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="12">
   <si>
     <t xml:space="preserve">normalName</t>
   </si>
@@ -47,6 +47,15 @@
   </si>
   <si>
     <t xml:space="preserve">null</t>
+  </si>
+  <si>
+    <t xml:space="preserve">windows</t>
+  </si>
+  <si>
+    <t xml:space="preserve">image-wllq5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Windows 10 x64</t>
   </si>
 </sst>
 </file>
@@ -162,16 +171,16 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C10" activeCellId="0" sqref="C10"/>
+      <selection pane="topLeft" activeCell="C5" activeCellId="0" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="25.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="24.59"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="24.6"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="32.51"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="42.1"/>
   </cols>
@@ -216,6 +225,20 @@
       </c>
       <c r="D3" s="0" t="s">
         <v>8</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
